--- a/test2/mwb.xlsx
+++ b/test2/mwb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="5440" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="42960" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>__workbook__</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级-&gt;升级1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -439,6 +463,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
